--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.46009803527541</v>
+        <v>7.5814115</v>
       </c>
       <c r="H2">
-        <v>7.46009803527541</v>
+        <v>15.162823</v>
       </c>
       <c r="I2">
-        <v>0.1825140611469851</v>
+        <v>0.1727528937976077</v>
       </c>
       <c r="J2">
-        <v>0.1825140611469851</v>
+        <v>0.129261602442644</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>9.458023766122411</v>
+        <v>0.915118</v>
       </c>
       <c r="N2">
-        <v>9.458023766122411</v>
+        <v>1.830236</v>
       </c>
       <c r="O2">
-        <v>0.3453729495643977</v>
+        <v>0.025381845354499</v>
       </c>
       <c r="P2">
-        <v>0.3453729495643977</v>
+        <v>0.02093680630390697</v>
       </c>
       <c r="Q2">
-        <v>70.55778451523793</v>
+        <v>6.937886129057</v>
       </c>
       <c r="R2">
-        <v>70.55778451523793</v>
+        <v>27.751544516228</v>
       </c>
       <c r="S2">
-        <v>0.06303541963531109</v>
+        <v>0.004384787234913068</v>
       </c>
       <c r="T2">
-        <v>0.06303541963531109</v>
+        <v>0.002706325132874266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.46009803527541</v>
+        <v>7.5814115</v>
       </c>
       <c r="H3">
-        <v>7.46009803527541</v>
+        <v>15.162823</v>
       </c>
       <c r="I3">
-        <v>0.1825140611469851</v>
+        <v>0.1727528937976077</v>
       </c>
       <c r="J3">
-        <v>0.1825140611469851</v>
+        <v>0.129261602442644</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.8245997815545</v>
+        <v>10.610183</v>
       </c>
       <c r="N3">
-        <v>2.8245997815545</v>
+        <v>31.830549</v>
       </c>
       <c r="O3">
-        <v>0.1031442066564379</v>
+        <v>0.2942855720124992</v>
       </c>
       <c r="P3">
-        <v>0.1031442066564379</v>
+        <v>0.3641224623272735</v>
       </c>
       <c r="Q3">
-        <v>21.07179128081408</v>
+        <v>80.44016341330449</v>
       </c>
       <c r="R3">
-        <v>21.07179128081408</v>
+        <v>482.640980479827</v>
       </c>
       <c r="S3">
-        <v>0.01882526804065037</v>
+        <v>0.05083868416804351</v>
       </c>
       <c r="T3">
-        <v>0.01882526804065037</v>
+        <v>0.04706705296578465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.46009803527541</v>
+        <v>7.5814115</v>
       </c>
       <c r="H4">
-        <v>7.46009803527541</v>
+        <v>15.162823</v>
       </c>
       <c r="I4">
-        <v>0.1825140611469851</v>
+        <v>0.1727528937976077</v>
       </c>
       <c r="J4">
-        <v>0.1825140611469851</v>
+        <v>0.129261602442644</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.1023345912027</v>
+        <v>4.698895333333333</v>
       </c>
       <c r="N4">
-        <v>15.1023345912027</v>
+        <v>14.096686</v>
       </c>
       <c r="O4">
-        <v>0.5514828437791643</v>
+        <v>0.130329241352092</v>
       </c>
       <c r="P4">
-        <v>0.5514828437791643</v>
+        <v>0.1612576653005389</v>
       </c>
       <c r="Q4">
-        <v>112.6648966119031</v>
+        <v>35.62425911742966</v>
       </c>
       <c r="R4">
-        <v>112.6648966119031</v>
+        <v>213.745554704578</v>
       </c>
       <c r="S4">
-        <v>0.1006533734710236</v>
+        <v>0.02251475359002072</v>
       </c>
       <c r="T4">
-        <v>0.1006533734710236</v>
+        <v>0.02084442422290721</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.6212343346419</v>
+        <v>7.5814115</v>
       </c>
       <c r="H5">
-        <v>7.6212343346419</v>
+        <v>15.162823</v>
       </c>
       <c r="I5">
-        <v>0.1864563203849347</v>
+        <v>0.1727528937976077</v>
       </c>
       <c r="J5">
-        <v>0.1864563203849347</v>
+        <v>0.129261602442644</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.458023766122411</v>
+        <v>19.829841</v>
       </c>
       <c r="N5">
-        <v>9.458023766122411</v>
+        <v>39.659682</v>
       </c>
       <c r="O5">
-        <v>0.3453729495643977</v>
+        <v>0.55000334128091</v>
       </c>
       <c r="P5">
-        <v>0.3453729495643977</v>
+        <v>0.4536830660682807</v>
       </c>
       <c r="Q5">
-        <v>72.08181546423121</v>
+        <v>150.3381846005715</v>
       </c>
       <c r="R5">
-        <v>72.08181546423121</v>
+        <v>601.3527384022859</v>
       </c>
       <c r="S5">
-        <v>0.06439696933626925</v>
+        <v>0.09501466880463043</v>
       </c>
       <c r="T5">
-        <v>0.06439696933626925</v>
+        <v>0.0586438001210779</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.6212343346419</v>
+        <v>8.049616333333333</v>
       </c>
       <c r="H6">
-        <v>7.6212343346419</v>
+        <v>24.148849</v>
       </c>
       <c r="I6">
-        <v>0.1864563203849347</v>
+        <v>0.1834215852211454</v>
       </c>
       <c r="J6">
-        <v>0.1864563203849347</v>
+        <v>0.2058666066922658</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>2.8245997815545</v>
+        <v>0.915118</v>
       </c>
       <c r="N6">
-        <v>2.8245997815545</v>
+        <v>1.830236</v>
       </c>
       <c r="O6">
-        <v>0.1031442066564379</v>
+        <v>0.025381845354499</v>
       </c>
       <c r="P6">
-        <v>0.1031442066564379</v>
+        <v>0.02093680630390697</v>
       </c>
       <c r="Q6">
-        <v>21.52693683680517</v>
+        <v>7.366348799727333</v>
       </c>
       <c r="R6">
-        <v>21.52693683680517</v>
+        <v>44.19809279836399</v>
       </c>
       <c r="S6">
-        <v>0.0192318892421827</v>
+        <v>0.004655578310760172</v>
       </c>
       <c r="T6">
-        <v>0.0192318892421827</v>
+        <v>0.004310189268758566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.6212343346419</v>
+        <v>8.049616333333333</v>
       </c>
       <c r="H7">
-        <v>7.6212343346419</v>
+        <v>24.148849</v>
       </c>
       <c r="I7">
-        <v>0.1864563203849347</v>
+        <v>0.1834215852211454</v>
       </c>
       <c r="J7">
-        <v>0.1864563203849347</v>
+        <v>0.2058666066922658</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.1023345912027</v>
+        <v>10.610183</v>
       </c>
       <c r="N7">
-        <v>15.1023345912027</v>
+        <v>31.830549</v>
       </c>
       <c r="O7">
-        <v>0.5514828437791643</v>
+        <v>0.2942855720124992</v>
       </c>
       <c r="P7">
-        <v>0.5514828437791643</v>
+        <v>0.3641224623272735</v>
       </c>
       <c r="Q7">
-        <v>115.0984309197241</v>
+        <v>85.40790237645565</v>
       </c>
       <c r="R7">
-        <v>115.0984309197241</v>
+        <v>768.6711213881009</v>
       </c>
       <c r="S7">
-        <v>0.1028274618064828</v>
+        <v>0.05397832612624414</v>
       </c>
       <c r="T7">
-        <v>0.1028274618064828</v>
+        <v>0.07496065573974817</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.40090189449655</v>
+        <v>8.049616333333333</v>
       </c>
       <c r="H8">
-        <v>7.40090189449655</v>
+        <v>24.148849</v>
       </c>
       <c r="I8">
-        <v>0.1810658056405976</v>
+        <v>0.1834215852211454</v>
       </c>
       <c r="J8">
-        <v>0.1810658056405976</v>
+        <v>0.2058666066922658</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.458023766122411</v>
+        <v>4.698895333333333</v>
       </c>
       <c r="N8">
-        <v>9.458023766122411</v>
+        <v>14.096686</v>
       </c>
       <c r="O8">
-        <v>0.3453729495643977</v>
+        <v>0.130329241352092</v>
       </c>
       <c r="P8">
-        <v>0.3453729495643977</v>
+        <v>0.1612576653005389</v>
       </c>
       <c r="Q8">
-        <v>69.99790600888875</v>
+        <v>37.82430462382377</v>
       </c>
       <c r="R8">
-        <v>69.99790600888875</v>
+        <v>340.4187416144139</v>
       </c>
       <c r="S8">
-        <v>0.06253523135934715</v>
+        <v>0.02390519604946996</v>
       </c>
       <c r="T8">
-        <v>0.06253523135934715</v>
+        <v>0.03319756835853908</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.40090189449655</v>
+        <v>8.049616333333333</v>
       </c>
       <c r="H9">
-        <v>7.40090189449655</v>
+        <v>24.148849</v>
       </c>
       <c r="I9">
-        <v>0.1810658056405976</v>
+        <v>0.1834215852211454</v>
       </c>
       <c r="J9">
-        <v>0.1810658056405976</v>
+        <v>0.2058666066922658</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.8245997815545</v>
+        <v>19.829841</v>
       </c>
       <c r="N9">
-        <v>2.8245997815545</v>
+        <v>39.659682</v>
       </c>
       <c r="O9">
-        <v>0.1031442066564379</v>
+        <v>0.55000334128091</v>
       </c>
       <c r="P9">
-        <v>0.1031442066564379</v>
+        <v>0.4536830660682807</v>
       </c>
       <c r="Q9">
-        <v>20.90458587450124</v>
+        <v>159.622612001003</v>
       </c>
       <c r="R9">
-        <v>20.90458587450124</v>
+        <v>957.7356720060178</v>
       </c>
       <c r="S9">
-        <v>0.01867588887540822</v>
+        <v>0.1008824847346711</v>
       </c>
       <c r="T9">
-        <v>0.01867588887540822</v>
+        <v>0.09339819332521997</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.40090189449655</v>
+        <v>7.572875</v>
       </c>
       <c r="H10">
-        <v>7.40090189449655</v>
+        <v>22.718625</v>
       </c>
       <c r="I10">
-        <v>0.1810658056405976</v>
+        <v>0.1725583778980416</v>
       </c>
       <c r="J10">
-        <v>0.1810658056405976</v>
+        <v>0.193674085148492</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>15.1023345912027</v>
+        <v>0.915118</v>
       </c>
       <c r="N10">
-        <v>15.1023345912027</v>
+        <v>1.830236</v>
       </c>
       <c r="O10">
-        <v>0.5514828437791643</v>
+        <v>0.025381845354499</v>
       </c>
       <c r="P10">
-        <v>0.5514828437791643</v>
+        <v>0.02093680630390697</v>
       </c>
       <c r="Q10">
-        <v>111.7708966873528</v>
+        <v>6.930074224249999</v>
       </c>
       <c r="R10">
-        <v>111.7708966873528</v>
+        <v>41.5804453455</v>
       </c>
       <c r="S10">
-        <v>0.09985468540584221</v>
+        <v>0.00437985006243129</v>
       </c>
       <c r="T10">
-        <v>0.09985468540584221</v>
+        <v>0.004054916806840362</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.25629852720261</v>
+        <v>7.572875</v>
       </c>
       <c r="H11">
-        <v>5.25629852720261</v>
+        <v>22.718625</v>
       </c>
       <c r="I11">
-        <v>0.128597290044225</v>
+        <v>0.1725583778980416</v>
       </c>
       <c r="J11">
-        <v>0.128597290044225</v>
+        <v>0.193674085148492</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.458023766122411</v>
+        <v>10.610183</v>
       </c>
       <c r="N11">
-        <v>9.458023766122411</v>
+        <v>31.830549</v>
       </c>
       <c r="O11">
-        <v>0.3453729495643977</v>
+        <v>0.2942855720124992</v>
       </c>
       <c r="P11">
-        <v>0.3453729495643977</v>
+        <v>0.3641224623272735</v>
       </c>
       <c r="Q11">
-        <v>49.71419639211651</v>
+        <v>80.34958958612499</v>
       </c>
       <c r="R11">
-        <v>49.71419639211651</v>
+        <v>723.146306275125</v>
       </c>
       <c r="S11">
-        <v>0.04441402536856234</v>
+        <v>0.05078144094527418</v>
       </c>
       <c r="T11">
-        <v>0.04441402536856234</v>
+        <v>0.07052108477325093</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.25629852720261</v>
+        <v>7.572875</v>
       </c>
       <c r="H12">
-        <v>5.25629852720261</v>
+        <v>22.718625</v>
       </c>
       <c r="I12">
-        <v>0.128597290044225</v>
+        <v>0.1725583778980416</v>
       </c>
       <c r="J12">
-        <v>0.128597290044225</v>
+        <v>0.193674085148492</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.8245997815545</v>
+        <v>4.698895333333333</v>
       </c>
       <c r="N12">
-        <v>2.8245997815545</v>
+        <v>14.096686</v>
       </c>
       <c r="O12">
-        <v>0.1031442066564379</v>
+        <v>0.130329241352092</v>
       </c>
       <c r="P12">
-        <v>0.1031442066564379</v>
+        <v>0.1612576653005389</v>
       </c>
       <c r="Q12">
-        <v>14.84693967172173</v>
+        <v>35.58414699741666</v>
       </c>
       <c r="R12">
-        <v>14.84693967172173</v>
+        <v>320.2573229767499</v>
       </c>
       <c r="S12">
-        <v>0.01326406545977943</v>
+        <v>0.02248940248039935</v>
       </c>
       <c r="T12">
-        <v>0.01326406545977943</v>
+        <v>0.0312314308002636</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.25629852720261</v>
+        <v>7.572875</v>
       </c>
       <c r="H13">
-        <v>5.25629852720261</v>
+        <v>22.718625</v>
       </c>
       <c r="I13">
-        <v>0.128597290044225</v>
+        <v>0.1725583778980416</v>
       </c>
       <c r="J13">
-        <v>0.128597290044225</v>
+        <v>0.193674085148492</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.1023345912027</v>
+        <v>19.829841</v>
       </c>
       <c r="N13">
-        <v>15.1023345912027</v>
+        <v>39.659682</v>
       </c>
       <c r="O13">
-        <v>0.5514828437791643</v>
+        <v>0.55000334128091</v>
       </c>
       <c r="P13">
-        <v>0.5514828437791643</v>
+        <v>0.4536830660682807</v>
       </c>
       <c r="Q13">
-        <v>79.38237906905978</v>
+        <v>150.168907162875</v>
       </c>
       <c r="R13">
-        <v>79.38237906905978</v>
+        <v>901.01344297725</v>
       </c>
       <c r="S13">
-        <v>0.07091919921588322</v>
+        <v>0.09490768440993681</v>
       </c>
       <c r="T13">
-        <v>0.07091919921588322</v>
+        <v>0.08786665276813713</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.04873482937959</v>
+        <v>5.874817333333333</v>
       </c>
       <c r="H14">
-        <v>7.04873482937959</v>
+        <v>17.624452</v>
       </c>
       <c r="I14">
-        <v>0.1724499079737329</v>
+        <v>0.1338657972681839</v>
       </c>
       <c r="J14">
-        <v>0.1724499079737329</v>
+        <v>0.1502467520522703</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>9.458023766122411</v>
+        <v>0.915118</v>
       </c>
       <c r="N14">
-        <v>9.458023766122411</v>
+        <v>1.830236</v>
       </c>
       <c r="O14">
-        <v>0.3453729495643977</v>
+        <v>0.025381845354499</v>
       </c>
       <c r="P14">
-        <v>0.3453729495643977</v>
+        <v>0.02093680630390697</v>
       </c>
       <c r="Q14">
-        <v>66.66710153736696</v>
+        <v>5.376151088445333</v>
       </c>
       <c r="R14">
-        <v>66.66710153736696</v>
+        <v>32.256906530672</v>
       </c>
       <c r="S14">
-        <v>0.05955953336899709</v>
+        <v>0.003397760964517759</v>
       </c>
       <c r="T14">
-        <v>0.05955953336899709</v>
+        <v>0.003145687145509521</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,184 +1340,184 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.04873482937959</v>
+        <v>5.874817333333333</v>
       </c>
       <c r="H15">
-        <v>7.04873482937959</v>
+        <v>17.624452</v>
       </c>
       <c r="I15">
-        <v>0.1724499079737329</v>
+        <v>0.1338657972681839</v>
       </c>
       <c r="J15">
-        <v>0.1724499079737329</v>
+        <v>0.1502467520522703</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.8245997815545</v>
+        <v>10.610183</v>
       </c>
       <c r="N15">
-        <v>2.8245997815545</v>
+        <v>31.830549</v>
       </c>
       <c r="O15">
-        <v>0.1031442066564379</v>
+        <v>0.2942855720124992</v>
       </c>
       <c r="P15">
-        <v>0.1031442066564379</v>
+        <v>0.3641224623272735</v>
       </c>
       <c r="Q15">
-        <v>19.90985485930118</v>
+        <v>62.33288699823866</v>
       </c>
       <c r="R15">
-        <v>19.90985485930118</v>
+        <v>560.9959829841479</v>
       </c>
       <c r="S15">
-        <v>0.01778720894592641</v>
+        <v>0.03939477272197676</v>
       </c>
       <c r="T15">
-        <v>0.01778720894592641</v>
+        <v>0.054708217313948</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.04873482937959</v>
+        <v>5.874817333333333</v>
       </c>
       <c r="H16">
-        <v>7.04873482937959</v>
+        <v>17.624452</v>
       </c>
       <c r="I16">
-        <v>0.1724499079737329</v>
+        <v>0.1338657972681839</v>
       </c>
       <c r="J16">
-        <v>0.1724499079737329</v>
+        <v>0.1502467520522703</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.1023345912027</v>
+        <v>4.698895333333333</v>
       </c>
       <c r="N16">
-        <v>15.1023345912027</v>
+        <v>14.096686</v>
       </c>
       <c r="O16">
-        <v>0.5514828437791643</v>
+        <v>0.130329241352092</v>
       </c>
       <c r="P16">
-        <v>0.5514828437791643</v>
+        <v>0.1612576653005389</v>
       </c>
       <c r="Q16">
-        <v>106.4523518379547</v>
+        <v>27.60515175178577</v>
       </c>
       <c r="R16">
-        <v>106.4523518379547</v>
+        <v>248.4463657660719</v>
       </c>
       <c r="S16">
-        <v>0.09510316565880941</v>
+        <v>0.01744662780095535</v>
       </c>
       <c r="T16">
-        <v>0.09510316565880941</v>
+        <v>0.02422844045493806</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.08683264499674</v>
+        <v>5.874817333333333</v>
       </c>
       <c r="H17">
-        <v>6.08683264499674</v>
+        <v>17.624452</v>
       </c>
       <c r="I17">
-        <v>0.1489166148095247</v>
+        <v>0.1338657972681839</v>
       </c>
       <c r="J17">
-        <v>0.1489166148095247</v>
+        <v>0.1502467520522703</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.458023766122411</v>
+        <v>19.829841</v>
       </c>
       <c r="N17">
-        <v>9.458023766122411</v>
+        <v>39.659682</v>
       </c>
       <c r="O17">
-        <v>0.3453729495643977</v>
+        <v>0.55000334128091</v>
       </c>
       <c r="P17">
-        <v>0.3453729495643977</v>
+        <v>0.4536830660682807</v>
       </c>
       <c r="Q17">
-        <v>57.5694078167889</v>
+        <v>116.496693624044</v>
       </c>
       <c r="R17">
-        <v>57.5694078167889</v>
+        <v>698.9801617442639</v>
       </c>
       <c r="S17">
-        <v>0.05143177049591081</v>
+        <v>0.07362663578073407</v>
       </c>
       <c r="T17">
-        <v>0.05143177049591081</v>
+        <v>0.06816440713787475</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.08683264499674</v>
+        <v>8.034326999999999</v>
       </c>
       <c r="H18">
-        <v>6.08683264499674</v>
+        <v>24.102981</v>
       </c>
       <c r="I18">
-        <v>0.1489166148095247</v>
+        <v>0.1830731967215145</v>
       </c>
       <c r="J18">
-        <v>0.1489166148095247</v>
+        <v>0.2054755864197981</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M18">
-        <v>2.8245997815545</v>
+        <v>0.915118</v>
       </c>
       <c r="N18">
-        <v>2.8245997815545</v>
+        <v>1.830236</v>
       </c>
       <c r="O18">
-        <v>0.1031442066564379</v>
+        <v>0.025381845354499</v>
       </c>
       <c r="P18">
-        <v>0.1031442066564379</v>
+        <v>0.02093680630390697</v>
       </c>
       <c r="Q18">
-        <v>17.19286615941659</v>
+        <v>7.352357255585999</v>
       </c>
       <c r="R18">
-        <v>17.19286615941659</v>
+        <v>44.114143533516</v>
       </c>
       <c r="S18">
-        <v>0.01535988609249078</v>
+        <v>0.004646735567739253</v>
       </c>
       <c r="T18">
-        <v>0.01535988609249078</v>
+        <v>0.00430200255305301</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8.034326999999999</v>
+      </c>
+      <c r="H19">
+        <v>24.102981</v>
+      </c>
+      <c r="I19">
+        <v>0.1830731967215145</v>
+      </c>
+      <c r="J19">
+        <v>0.2054755864197981</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10.610183</v>
+      </c>
+      <c r="N19">
+        <v>31.830549</v>
+      </c>
+      <c r="O19">
+        <v>0.2942855720124992</v>
+      </c>
+      <c r="P19">
+        <v>0.3641224623272735</v>
+      </c>
+      <c r="Q19">
+        <v>85.24567975184098</v>
+      </c>
+      <c r="R19">
+        <v>767.2111177665689</v>
+      </c>
+      <c r="S19">
+        <v>0.05387580041734768</v>
+      </c>
+      <c r="T19">
+        <v>0.07481827647531736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.034326999999999</v>
+      </c>
+      <c r="H20">
+        <v>24.102981</v>
+      </c>
+      <c r="I20">
+        <v>0.1830731967215145</v>
+      </c>
+      <c r="J20">
+        <v>0.2054755864197981</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.698895333333333</v>
+      </c>
+      <c r="N20">
+        <v>14.096686</v>
+      </c>
+      <c r="O20">
+        <v>0.130329241352092</v>
+      </c>
+      <c r="P20">
+        <v>0.1612576653005389</v>
+      </c>
+      <c r="Q20">
+        <v>37.75246164677399</v>
+      </c>
+      <c r="R20">
+        <v>339.772154820966</v>
+      </c>
+      <c r="S20">
+        <v>0.02385979084061727</v>
+      </c>
+      <c r="T20">
+        <v>0.03313451334231576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.034326999999999</v>
+      </c>
+      <c r="H21">
+        <v>24.102981</v>
+      </c>
+      <c r="I21">
+        <v>0.1830731967215145</v>
+      </c>
+      <c r="J21">
+        <v>0.2054755864197981</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>19.829841</v>
+      </c>
+      <c r="N21">
+        <v>39.659682</v>
+      </c>
+      <c r="O21">
+        <v>0.55000334128091</v>
+      </c>
+      <c r="P21">
+        <v>0.4536830660682807</v>
+      </c>
+      <c r="Q21">
+        <v>159.319426952007</v>
+      </c>
+      <c r="R21">
+        <v>955.9165617120419</v>
+      </c>
+      <c r="S21">
+        <v>0.1006908698958103</v>
+      </c>
+      <c r="T21">
+        <v>0.09322079404911197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>6.08683264499674</v>
-      </c>
-      <c r="H19">
-        <v>6.08683264499674</v>
-      </c>
-      <c r="I19">
-        <v>0.1489166148095247</v>
-      </c>
-      <c r="J19">
-        <v>0.1489166148095247</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>15.1023345912027</v>
-      </c>
-      <c r="N19">
-        <v>15.1023345912027</v>
-      </c>
-      <c r="O19">
-        <v>0.5514828437791643</v>
-      </c>
-      <c r="P19">
-        <v>0.5514828437791643</v>
-      </c>
-      <c r="Q19">
-        <v>91.92538320539609</v>
-      </c>
-      <c r="R19">
-        <v>91.92538320539609</v>
-      </c>
-      <c r="S19">
-        <v>0.08212495822112309</v>
-      </c>
-      <c r="T19">
-        <v>0.08212495822112309</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.7728255</v>
+      </c>
+      <c r="H22">
+        <v>13.545651</v>
+      </c>
+      <c r="I22">
+        <v>0.1543281490935071</v>
+      </c>
+      <c r="J22">
+        <v>0.1154753672445298</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.915118</v>
+      </c>
+      <c r="N22">
+        <v>1.830236</v>
+      </c>
+      <c r="O22">
+        <v>0.025381845354499</v>
+      </c>
+      <c r="P22">
+        <v>0.02093680630390697</v>
+      </c>
+      <c r="Q22">
+        <v>6.197934525909</v>
+      </c>
+      <c r="R22">
+        <v>24.791738103636</v>
+      </c>
+      <c r="S22">
+        <v>0.003917133214137462</v>
+      </c>
+      <c r="T22">
+        <v>0.002417685396871244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.7728255</v>
+      </c>
+      <c r="H23">
+        <v>13.545651</v>
+      </c>
+      <c r="I23">
+        <v>0.1543281490935071</v>
+      </c>
+      <c r="J23">
+        <v>0.1154753672445298</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.610183</v>
+      </c>
+      <c r="N23">
+        <v>31.830549</v>
+      </c>
+      <c r="O23">
+        <v>0.2942855720124992</v>
+      </c>
+      <c r="P23">
+        <v>0.3641224623272735</v>
+      </c>
+      <c r="Q23">
+        <v>71.8609179820665</v>
+      </c>
+      <c r="R23">
+        <v>431.165507892399</v>
+      </c>
+      <c r="S23">
+        <v>0.045416547633613</v>
+      </c>
+      <c r="T23">
+        <v>0.04204717505922437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.7728255</v>
+      </c>
+      <c r="H24">
+        <v>13.545651</v>
+      </c>
+      <c r="I24">
+        <v>0.1543281490935071</v>
+      </c>
+      <c r="J24">
+        <v>0.1154753672445298</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.698895333333333</v>
+      </c>
+      <c r="N24">
+        <v>14.096686</v>
+      </c>
+      <c r="O24">
+        <v>0.130329241352092</v>
+      </c>
+      <c r="P24">
+        <v>0.1612576653005389</v>
+      </c>
+      <c r="Q24">
+        <v>31.824798135431</v>
+      </c>
+      <c r="R24">
+        <v>190.948788812586</v>
+      </c>
+      <c r="S24">
+        <v>0.02011347059062932</v>
+      </c>
+      <c r="T24">
+        <v>0.0186212881215752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.7728255</v>
+      </c>
+      <c r="H25">
+        <v>13.545651</v>
+      </c>
+      <c r="I25">
+        <v>0.1543281490935071</v>
+      </c>
+      <c r="J25">
+        <v>0.1154753672445298</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.829841</v>
+      </c>
+      <c r="N25">
+        <v>39.659682</v>
+      </c>
+      <c r="O25">
+        <v>0.55000334128091</v>
+      </c>
+      <c r="P25">
+        <v>0.4536830660682807</v>
+      </c>
+      <c r="Q25">
+        <v>134.3040527857455</v>
+      </c>
+      <c r="R25">
+        <v>537.2162111429819</v>
+      </c>
+      <c r="S25">
+        <v>0.08488099765512734</v>
+      </c>
+      <c r="T25">
+        <v>0.05238921866685899</v>
       </c>
     </row>
   </sheetData>
